--- a/src/storage/ad-coupon/fb-new.xlsx
+++ b/src/storage/ad-coupon/fb-new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="8160"/>
+    <workbookView windowWidth="24880" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>品牌</t>
   </si>
@@ -49,16 +49,19 @@
     <t>是否商家券</t>
   </si>
   <si>
-    <t>天图pro</t>
-  </si>
-  <si>
-    <t>1284420000000002</t>
-  </si>
-  <si>
-    <t>2.01-2</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
+    <t>是否是h5</t>
+  </si>
+  <si>
+    <t>一叶子</t>
+  </si>
+  <si>
+    <t>1284420000000089</t>
+  </si>
+  <si>
+    <t>199-130</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-ls_lssjqyyz1201&amp;brand_id=39</t>
   </si>
   <si>
     <t>是</t>
@@ -73,12 +76,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,32 +96,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -126,6 +186,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -135,14 +196,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +239,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,95 +252,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,31 +269,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,151 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,30 +483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,192 +527,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,86 +1054,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="17.3583333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.6416666666667" customWidth="1"/>
     <col min="3" max="3" width="11.8" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="76.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="21.8083333333333" customWidth="1"/>
     <col min="8" max="8" width="22.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.3833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.3833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" ht="16.8" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10">
-        <v>44160</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="3">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
+      <c r="H2" s="7">
+        <v>44176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/storage/ad-coupon/fb-new.xlsx
+++ b/src/storage/ad-coupon/fb-new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24880" windowHeight="8160"/>
+    <workbookView windowWidth="26840" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>品牌</t>
   </si>
@@ -52,22 +52,49 @@
     <t>是否是h5</t>
   </si>
   <si>
-    <t>一叶子</t>
-  </si>
-  <si>
-    <t>1284420000000089</t>
-  </si>
-  <si>
-    <t>199-130</t>
-  </si>
-  <si>
-    <t>pages/me/storeBrand/storeBrand?channel=i-ls_lssjqyyz1201&amp;brand_id=39</t>
+    <t>维达</t>
+  </si>
+  <si>
+    <t>1284420000000113</t>
+  </si>
+  <si>
+    <t>199-115</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbsjqwd1217&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>10M</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>否</t>
+    <t>蓝月亮</t>
+  </si>
+  <si>
+    <t>1284420000000118</t>
+  </si>
+  <si>
+    <t>199-110</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbsjqlyl1217&amp;brand_id=20</t>
+  </si>
+  <si>
+    <t>百草味</t>
+  </si>
+  <si>
+    <t>1284420000000117</t>
+  </si>
+  <si>
+    <t>299-210</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-fb_fbsjqbcw1217&amp;brand_id=18</t>
   </si>
 </sst>
 </file>
@@ -76,12 +103,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,23 +130,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Source Sans Pro"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,9 +152,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -162,6 +206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -170,9 +222,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,14 +260,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -203,42 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,14 +280,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +493,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,13 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,8 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,152 +586,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,18 +742,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,13 +1078,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="22.6416666666667" customWidth="1"/>
     <col min="3" max="3" width="11.8" style="1" customWidth="1"/>
@@ -1068,7 +1092,7 @@
     <col min="5" max="5" width="76.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="21.8083333333333" customWidth="1"/>
     <col min="8" max="8" width="22.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1109,7 +1133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:12">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1119,30 +1143,102 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7">
-        <v>44176</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="8">
+        <v>44183</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8">
+        <v>44183</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44183</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
